--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,173 +453,422 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45551</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45558</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1200</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45565</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>120</v>
+      <c r="C5" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
+      <c r="C6" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B7" t="n">
         <v>82</v>
       </c>
-      <c r="C7" t="n">
-        <v>20</v>
+      <c r="C7" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B8" t="n">
         <v>108</v>
       </c>
-      <c r="C8" t="n">
-        <v>270</v>
+      <c r="C8" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B9" t="n">
         <v>141</v>
       </c>
-      <c r="C9" t="n">
-        <v>10</v>
+      <c r="C9" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B10" t="n">
         <v>155</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" t="n">
-        <v>1260</v>
+      <c r="C11" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B13" t="n">
         <v>260</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B14" t="n">
         <v>316</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B15" t="n">
         <v>180</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B16" t="n">
         <v>184</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
+      <c r="C16" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B6" t="n">
+        <v>270</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-96.2962962962963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B2" t="n">
+        <v>414.2857142857143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>444.2857142857142</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,222 +453,172 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>82</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>108</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>141</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>155</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="C11" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>260</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>316</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>180</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>184</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>1200</v>
@@ -721,7 +671,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>120</v>
@@ -732,7 +682,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -743,7 +693,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>20</v>
@@ -754,7 +704,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>270</v>
@@ -765,7 +715,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>10</v>
@@ -776,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45614</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>1260</v>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Sales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Daily PO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merged (Optional)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Volume Insights" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Prediction" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +452,6 @@
           <t>y</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PO_Requested_Qty</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -464,9 +460,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -475,9 +468,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>1200</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -486,9 +476,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -497,9 +484,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -508,9 +492,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -519,9 +500,6 @@
       <c r="B7" t="n">
         <v>82</v>
       </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -530,9 +508,6 @@
       <c r="B8" t="n">
         <v>108</v>
       </c>
-      <c r="C8" t="n">
-        <v>270</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -541,9 +516,6 @@
       <c r="B9" t="n">
         <v>141</v>
       </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -552,9 +524,6 @@
       <c r="B10" t="n">
         <v>155</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +532,6 @@
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" t="n">
-        <v>1260</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -574,9 +540,6 @@
       <c r="B12" t="n">
         <v>128</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -585,9 +548,6 @@
       <c r="B13" t="n">
         <v>260</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -596,9 +556,6 @@
       <c r="B14" t="n">
         <v>316</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -607,9 +564,6 @@
       <c r="B15" t="n">
         <v>180</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -617,9 +571,6 @@
       </c>
       <c r="B16" t="n">
         <v>184</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,95 +595,4452 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ds</t>
+          <t>PO</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PO_Requested_Qty</t>
+          <t>Vendor code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Growth%</t>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Product name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>External ID type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>External ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Model number</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Merchant SKU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Catalog number</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Availability</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Accepted quantity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ASN quantity</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Received quantity</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Cancelled quantity</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Remaining quantity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Ship-to location</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Window start</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Window end</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Case size</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Total requested cost</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total accepted cost</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Total received cost</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Total cancelled cost</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Expected date</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Freight terms</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation ID</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Cancellation deadline</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>85C8GJMT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>RYY2</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>335</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y2" t="n">
+        <v>5025</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5025</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B3" t="n">
-        <v>120</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-90</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>849GL3YK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3" t="n">
+        <v>60</v>
+      </c>
+      <c r="O3" t="n">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>335</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y3" t="n">
+        <v>20100</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>20100</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>20100</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4UFILVPS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>270</v>
+      </c>
+      <c r="N4" t="n">
+        <v>270</v>
+      </c>
+      <c r="O4" t="n">
+        <v>270</v>
+      </c>
+      <c r="P4" t="n">
+        <v>256</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>335</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y4" t="n">
+        <v>90450</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>90450</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>85760</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3HYHI9EU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>45</v>
+      </c>
+      <c r="N5" t="n">
+        <v>45</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45</v>
+      </c>
+      <c r="P5" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>335</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y5" t="n">
+        <v>15075</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15075</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14740</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1VYI8LPP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>50</v>
+      </c>
+      <c r="O6" t="n">
+        <v>50</v>
+      </c>
+      <c r="P6" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>335</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>16750</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>16750</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14405</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1UQAW2RG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>160</v>
+      </c>
+      <c r="N7" t="n">
+        <v>160</v>
+      </c>
+      <c r="O7" t="n">
+        <v>160</v>
+      </c>
+      <c r="P7" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>LAS1</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U7" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>335</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>53600</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>53600</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>49915</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3685</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1UQAW2RG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>160</v>
+      </c>
+      <c r="N8" t="n">
+        <v>160</v>
+      </c>
+      <c r="O8" t="n">
+        <v>160</v>
+      </c>
+      <c r="P8" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>LAS1</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U8" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>335</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>53600</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>53600</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>49915</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3685</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1VYI8LPP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N9" t="n">
+        <v>50</v>
+      </c>
+      <c r="O9" t="n">
+        <v>50</v>
+      </c>
+      <c r="P9" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>335</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>16750</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>16750</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>14405</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3HYHI9EU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>45</v>
+      </c>
+      <c r="N10" t="n">
+        <v>45</v>
+      </c>
+      <c r="O10" t="n">
+        <v>45</v>
+      </c>
+      <c r="P10" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>LAN2</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U10" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>335</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>15075</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15075</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14740</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4UFILVPS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>270</v>
+      </c>
+      <c r="N11" t="n">
+        <v>270</v>
+      </c>
+      <c r="O11" t="n">
+        <v>270</v>
+      </c>
+      <c r="P11" t="n">
+        <v>256</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>14</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>335</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>90450</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>90450</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>85760</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>849GL3YK</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>60</v>
+      </c>
+      <c r="N12" t="n">
+        <v>60</v>
+      </c>
+      <c r="O12" t="n">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>335</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>20100</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>20100</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20100</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>85C8GJMT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>RYY2</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>45567</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>335</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>5025</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5025</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4CSWQAFV</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>335</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2YURLZHI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>335</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8L5A9B1Q</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>25</v>
+      </c>
+      <c r="O16" t="n">
+        <v>25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>HGR6</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>335</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>8375</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2YURLZHI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>335</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6K368NNA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>25</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>335</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>8375</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8040</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8L5A9B1Q</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>HGR6</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>335</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>8375</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4CSWQAFV</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>335</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6K368NNA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>335</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>8375</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>8375</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>8040</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="AG21" t="n">
         <v>20</v>
       </c>
-      <c r="C4" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45592.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>270</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B7" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>6E8XRKLU</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>335</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>67B4XZWP</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" t="n">
         <v>10</v>
       </c>
-      <c r="C7" t="n">
-        <v>-96.2962962962963</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45620.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12500</v>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>335</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>67B4XZWP</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>335</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>6E8XRKLU</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>TMB8</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="U25" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>335</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y25" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7NRXRJ1Q</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="U26" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>335</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1ZA9W4VK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>335</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1ZA9W4VK</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>HIA1</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="n">
+        <v>335</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y28" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7NRXRJ1Q</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>335</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3350</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3K2QJP4B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>40</v>
+      </c>
+      <c r="N30" t="n">
+        <v>40</v>
+      </c>
+      <c r="O30" t="n">
+        <v>40</v>
+      </c>
+      <c r="P30" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="U30" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1</v>
+      </c>
+      <c r="W30" t="n">
+        <v>335</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y30" t="n">
+        <v>13400</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13400</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>11725</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>6VS5MLJB</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>95</v>
+      </c>
+      <c r="N31" t="n">
+        <v>95</v>
+      </c>
+      <c r="O31" t="n">
+        <v>95</v>
+      </c>
+      <c r="P31" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="U31" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>335</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>31825</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>31825</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>31155</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6VS5MLJB</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>95</v>
+      </c>
+      <c r="N32" t="n">
+        <v>95</v>
+      </c>
+      <c r="O32" t="n">
+        <v>95</v>
+      </c>
+      <c r="P32" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>RDU4</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="U32" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>335</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>31825</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>31825</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>31155</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>670</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>45605</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3K2QJP4B</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>40</v>
+      </c>
+      <c r="N33" t="n">
+        <v>40</v>
+      </c>
+      <c r="O33" t="n">
+        <v>40</v>
+      </c>
+      <c r="P33" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="U33" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>335</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y33" t="n">
+        <v>13400</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13400</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>11725</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2" t="n">
+        <v>45598</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2J6XS4KV</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="U34" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1</v>
+      </c>
+      <c r="W34" t="n">
+        <v>335</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y34" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2J6XS4KV</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>IA - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>HEA2</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>335</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y35" t="n">
+        <v>1675</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1675</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>829C48BH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>IQ - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>630</v>
+      </c>
+      <c r="N36" t="n">
+        <v>300</v>
+      </c>
+      <c r="O36" t="n">
+        <v>300</v>
+      </c>
+      <c r="P36" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>ABS4</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="U36" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>335</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y36" t="n">
+        <v>211050</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>100500</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>100500</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>829C48BH</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GIGF7</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>GIGABYTE X870E AORUS PRO ICE AMD AM5 LGA 1718 Motherboard, ATX, DDR5, 4X M.2, PCIe 5.0, USB4, WIFI7, 2.5GbE LAN, EZ-Latch, 5-Year Warranty</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>IQ - Accepted: EDI Only</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>630</v>
+      </c>
+      <c r="N37" t="n">
+        <v>300</v>
+      </c>
+      <c r="O37" t="n">
+        <v>300</v>
+      </c>
+      <c r="P37" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>ABS4</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1</v>
+      </c>
+      <c r="W37" t="n">
+        <v>335</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="Y37" t="n">
+        <v>211050</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>100500</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>100500</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>Collect</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -741,6 +5049,603 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Daily_PO_Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>82</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>108</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>141</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>155</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>131</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>128</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>260</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>316</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>180</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>184</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -781,13 +5686,13 @@
         <v>2900</v>
       </c>
       <c r="B2" t="n">
-        <v>414.2857142857143</v>
+        <v>80.55555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>1260</v>
+        <v>630</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -812,13 +5717,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Predicted_Next_Week_PO_Quantity</t>
+          <t>Predicted_Next_Daily_PO_Quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>444.2857142857142</v>
+        <v>130.5079365079365</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,14 @@
       </c>
       <c r="B16" t="n">
         <v>184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5054,7 +5062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,6 +5645,17 @@
         <v>184</v>
       </c>
       <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>140</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,14 @@
       </c>
       <c r="B17" t="n">
         <v>140</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5062,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5656,6 +5664,17 @@
         <v>140</v>
       </c>
       <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>148</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,14 @@
       </c>
       <c r="B18" t="n">
         <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -5070,7 +5078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,6 +5683,17 @@
         <v>148</v>
       </c>
       <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>465</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0DGVBSLLP_sales_po_comparison.xlsx
@@ -594,7 +594,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>465</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +5691,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>465</v>
+        <v>120</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
